--- a/classfiers/bottleneck/multinomialNB/nearmiss/bottleneck-multinomialNB-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/multinomialNB/nearmiss/bottleneck-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2383040935672515</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2151515151515151</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2383040935672515</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5394736842105263</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5391941391941393</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5394736842105263</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.868421052631579</v>
+        <v>0.5055555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8632668144863267</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="E5" t="n">
-        <v>0.868421052631579</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8054054054054054</v>
+        <v>0.7662337662337662</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8055555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5556582633053221</v>
+        <v>0.4978506787330316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5403508771929825</v>
+        <v>0.5011111111111111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.523734009630086</v>
+        <v>0.4461371961371962</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5403508771929825</v>
+        <v>0.5011111111111111</v>
       </c>
     </row>
   </sheetData>
